--- a/数据整理/stocks/A股/科创板/688212-澳华内镜.xlsx
+++ b/数据整理/stocks/A股/科创板/688212-澳华内镜.xlsx
@@ -7,7 +7,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -545,7 +546,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -556,17 +557,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -576,13 +597,293 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>011335</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银河医药健康混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>8.94</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.69</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4166</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>519670</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>银河行业混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>9.93</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>80.84</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2949</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>007861</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>金元顺安医疗健康混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.80</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0174</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>007862</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>金元顺安医疗健康混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>86.80</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005537</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中航新起航灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>87.09</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005538</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中航新起航灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>87.09</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="C3" t="n">
         <v>1</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D3" t="n">
         <v>0.01</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688212-澳华内镜.xlsx
+++ b/数据整理/stocks/A股/科创板/688212-澳华内镜.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -830,7 +831,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -841,17 +842,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -861,14 +882,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>6</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.73</v>
+          <t>506006</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富科创板2年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>28.65</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.90</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9483</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -877,13 +920,271 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>011335</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>银河医药健康混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8.99</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4450</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>007861</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>金元顺安医疗健康混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.90</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0156</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>007862</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>金元顺安医疗健康混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.90</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005537</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中航新起航灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>87.96</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.62</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005538</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中航新起航灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>87.96</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.62</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>1</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>0.01</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688212-澳华内镜.xlsx
+++ b/数据整理/stocks/A股/科创板/688212-澳华内镜.xlsx
@@ -6,10 +6,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,91 +453,81 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>010434</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>红土创新医疗保健股票</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0.23</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>91.49</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.48</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0103</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>8</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.01</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -598,32 +588,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>011335</t>
+          <t>506006</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>银河医药健康混合型证券投资基金</t>
+          <t>汇添富科创板2年定期开放混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>8.94</t>
+          <t>28.65</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>87.69</t>
+          <t>94.90</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.66</t>
+          <t>3.31</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.4166</t>
+          <t>0.9483</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -636,36 +626,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>519670</t>
+          <t>011335</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>银河行业混合</t>
+          <t>银河医药健康混合型证券投资基金</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>9.93</t>
+          <t>8.99</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>80.84</t>
+          <t>93.77</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.97</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.2949</t>
+          <t>0.4450</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -684,26 +674,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.52</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>86.80</t>
+          <t>88.90</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.35</t>
+          <t>3.54</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0174</t>
+          <t>0.0156</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -727,21 +717,21 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>86.80</t>
+          <t>88.90</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.35</t>
+          <t>3.54</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0030</t>
+          <t>0.0032</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -765,21 +755,21 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>87.09</t>
+          <t>87.96</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4.18</t>
+          <t>7.62</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0013</t>
+          <t>0.0023</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -803,21 +793,21 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>87.09</t>
+          <t>87.96</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>4.18</t>
+          <t>7.62</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0004</t>
+          <t>0.0008</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -882,32 +872,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>506006</t>
+          <t>011335</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>汇添富科创板2年定期开放混合</t>
+          <t>银河医药健康混合型证券投资基金</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>28.65</t>
+          <t>8.94</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.90</t>
+          <t>87.69</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.31</t>
+          <t>4.66</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.9483</t>
+          <t>0.4166</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -920,36 +910,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>011335</t>
+          <t>519670</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>银河医药健康混合型证券投资基金</t>
+          <t>银河行业混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>8.99</t>
+          <t>9.93</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.77</t>
+          <t>80.84</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>2.97</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.4450</t>
+          <t>0.2949</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -968,26 +958,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.44</t>
+          <t>0.52</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>88.90</t>
+          <t>86.80</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.54</t>
+          <t>3.35</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0156</t>
+          <t>0.0174</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -1011,21 +1001,21 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>88.90</t>
+          <t>86.80</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.54</t>
+          <t>3.35</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0032</t>
+          <t>0.0030</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -1049,21 +1039,21 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>87.96</t>
+          <t>87.09</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>7.62</t>
+          <t>4.18</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0023</t>
+          <t>0.0013</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -1087,21 +1077,21 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>87.96</t>
+          <t>87.09</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>7.62</t>
+          <t>4.18</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0008</t>
+          <t>0.0004</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1115,80 +1105,90 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>6</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.42</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>6</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.73</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.01</v>
+          <t>010434</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>红土创新医疗保健股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.49</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688212-澳华内镜.xlsx
+++ b/数据整理/stocks/A股/科创板/688212-澳华内镜.xlsx
@@ -7,9 +7,10 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,7 +454,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,14 +485,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D2" t="n">
-        <v>1.42</v>
+        <v>2.07</v>
       </c>
     </row>
     <row r="3">
@@ -500,14 +501,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>0.73</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="4">
@@ -516,13 +517,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>6</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>1</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0.01</v>
       </c>
     </row>
@@ -537,7 +554,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -598,26 +615,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>28.65</t>
+          <t>16.61</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.90</t>
+          <t>88.62</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.31</t>
+          <t>4.78</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.9483</t>
+          <t>0.7940</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -626,36 +643,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>011335</t>
+          <t>005454</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>银河医药健康混合型证券投资基金</t>
+          <t>前海开源医疗健康灵活配置混合C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>8.99</t>
+          <t>11.13</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.77</t>
+          <t>89.13</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>3.97</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.4450</t>
+          <t>0.4419</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -664,32 +681,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>007861</t>
+          <t>005453</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>金元顺安医疗健康混合型证券投资基金A</t>
+          <t>前海开源医疗健康灵活配置混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.44</t>
+          <t>9.11</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>88.90</t>
+          <t>89.13</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.54</t>
+          <t>3.97</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0156</t>
+          <t>0.3617</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -702,32 +719,32 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>007862</t>
+          <t>011335</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>金元顺安医疗健康混合型证券投资基金C</t>
+          <t>银河医药健康混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>7.55</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>88.90</t>
+          <t>94.19</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.54</t>
+          <t>4.22</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0032</t>
+          <t>0.3186</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -740,36 +757,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>005537</t>
+          <t>011601</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>中航新起航灵活配置混合A</t>
+          <t>前海开源公共卫生主题精选股票A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>1.26</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>87.96</t>
+          <t>86.47</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>7.62</t>
+          <t>3.92</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0023</t>
+          <t>0.0494</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -778,36 +795,302 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>005538</t>
+          <t>011602</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>中航新起航灵活配置混合C</t>
+          <t>前海开源公共卫生主题精选股票C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>86.47</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0329</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>014737</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>创金合信专精特新股票C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>81.21</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0325</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>014736</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>创金合信专精特新股票A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>81.21</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0196</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>007861</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>金元顺安医疗健康混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>85.44</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>013072</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>泰信医疗服务混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.16</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>007862</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>金元顺安医疗健康混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>85.44</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>013073</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>泰信医疗服务混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
           <t>0.01</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>87.96</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>7.62</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0008</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.16</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
         <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>015666</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>银河医药健康混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -872,32 +1155,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>011335</t>
+          <t>506006</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>银河医药健康混合型证券投资基金</t>
+          <t>汇添富科创板2年定期开放混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>8.94</t>
+          <t>28.65</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>87.69</t>
+          <t>94.90</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.66</t>
+          <t>3.31</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.4166</t>
+          <t>0.9483</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -910,36 +1193,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>519670</t>
+          <t>011335</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>银河行业混合</t>
+          <t>银河医药健康混合型证券投资基金</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>9.93</t>
+          <t>8.99</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>80.84</t>
+          <t>93.77</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.97</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.2949</t>
+          <t>0.4450</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -958,26 +1241,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.52</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>86.80</t>
+          <t>88.90</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.35</t>
+          <t>3.54</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0174</t>
+          <t>0.0156</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -1001,21 +1284,21 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>86.80</t>
+          <t>88.90</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.35</t>
+          <t>3.54</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0030</t>
+          <t>0.0032</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -1039,21 +1322,21 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>87.09</t>
+          <t>87.96</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4.18</t>
+          <t>7.62</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0013</t>
+          <t>0.0023</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -1077,21 +1360,21 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>87.09</t>
+          <t>87.96</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>4.18</t>
+          <t>7.62</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0004</t>
+          <t>0.0008</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1100,6 +1383,290 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>011335</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银河医药健康混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>8.94</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.69</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4166</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>519670</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>银河行业混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>9.93</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>80.84</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2949</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>007861</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>金元顺安医疗健康混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.80</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0174</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>007862</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>金元顺安医疗健康混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>86.80</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005537</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中航新起航灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>87.09</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005538</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中航新起航灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>87.09</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/科创板/688212-澳华内镜.xlsx
+++ b/数据整理/stocks/A股/科创板/688212-澳华内镜.xlsx
@@ -7,10 +7,11 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,7 +455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,14 +486,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="D2" t="n">
-        <v>2.07</v>
+        <v>7.95</v>
       </c>
     </row>
     <row r="3">
@@ -501,14 +502,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D3" t="n">
-        <v>1.42</v>
+        <v>2.07</v>
       </c>
     </row>
     <row r="4">
@@ -517,14 +518,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>0.73</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="5">
@@ -533,13 +534,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>1</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.01</v>
       </c>
     </row>
@@ -549,6 +566,2416 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H63"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>501207</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏创新未来混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>47.26</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.0416</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000031</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏复兴混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>25.12</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.77</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.1178</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>506006</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇添富科创板2年定开混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>17.32</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>79.02</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7829</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>007349</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华夏科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>12.57</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5556</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005454</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>前海开源医疗健康灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>11.09</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>87.03</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5312</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005453</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>前海开源医疗健康灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>9.08</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>87.03</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4349</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010654</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>天弘医药创新混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>8.87</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3646</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>013962</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华夏创新视野一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>7.55</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3284</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>013963</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华夏创新视野一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2836</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010655</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>天弘医药创新混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1438</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>014737</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>创金合信专精特新股票C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.82</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.51</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1374</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>310388</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>申万菱信消费增长混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1140</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>000259</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>农银区间收益混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>75.37</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0746</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>000017</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>财通可持续发展主题混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.28</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0672</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>013238</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>财通均衡一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>86.59</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0643</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>014736</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>创金合信专精特新股票A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.82</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>7.51</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0608</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011601</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>前海开源公共卫生主题精选股票A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>85.69</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0598</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>012924</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华夏新时代灵活配置混合（QDII）美元现汇</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>77.57</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0573</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>012925</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华夏新时代灵活配置混合（QDII）美元现钞</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>77.57</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0573</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>501026</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>财通多策略福享混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>86.97</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0512</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>001294</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>新华战略新兴产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0476</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>007350</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华夏科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0438</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>673110</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>西部利得新润灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>80.39</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0432</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>011602</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>前海开源公共卫生主题精选股票C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>85.69</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0390</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>015254</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>申万菱信消费增长混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0328</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>011457</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>新华行业龙头主题股票</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0320</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>005293</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>诺德新旺灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0293</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>016305</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>农银专精特新混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>91.93</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0289</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>006881</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>华宝大健康混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>87.95</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0269</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>005113</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>平安沪深300指数量化增强A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0264</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>006241</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>中融医疗健康精选混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0213</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>014708</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>天弘臻选健康混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>91.26</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0210</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>005117</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>金信价值精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0209</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>700002</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>平安深证300指数增强</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0186</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>005044</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>国寿安保健康科学混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>79.08</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0179</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>006193</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>鑫元核心资产股票A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>87.44</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0174</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>001563</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>华富健康文娱灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>90.72</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0164</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>000935</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>浙商汇金转型成长混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>76.54</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0160</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>013145</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>浙商汇金先进制造混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>76.93</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0157</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>710002</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>富安达策略精选混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>67.44</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0132</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>014157</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>国泰君安创新医药混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>77.47</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0123</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>007862</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>金元顺安医疗健康混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>88.67</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>007861</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>金元顺安医疗健康混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>88.67</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>005114</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>平安沪深300指数量化增强C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>005209</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>东吴双三角股票A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>92.11</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>6.32</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>005210</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>东吴双三角股票C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>92.11</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>6.32</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>169201</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>浙商汇金鼎盈事件驱动灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>69.83</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>014285</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>鑫元健康产业混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>87.13</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>016306</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>农银专精特新混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>91.93</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>014709</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>天弘臻选健康混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>91.26</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>006240</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>中融医疗健康精选混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>009336</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>平安中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>009337</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>平安中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>006968</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>财通行业龙头精选混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>85.52</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>015073</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>华夏复兴混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>92.77</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>014286</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>鑫元健康产业混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>87.13</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>005043</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>国寿安保健康科学混合A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>79.08</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>006967</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>财通行业龙头精选混合A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>85.52</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>005118</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>金信价值精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>013239</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>财通均衡一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>86.59</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>006194</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>鑫元核心资产股票C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>87.44</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>015356</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>西部利得新润灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>80.39</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G63" t="n">
+        <v>0</v>
+      </c>
+      <c r="H63" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1091,290 +3518,6 @@
       </c>
       <c r="H14" t="n">
         <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>506006</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>汇添富科创板2年定期开放混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>28.65</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.90</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.31</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.9483</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>011335</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>银河医药健康混合型证券投资基金</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>8.99</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>93.77</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.95</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.4450</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>007861</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>金元顺安医疗健康混合型证券投资基金A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.44</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>88.90</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.54</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0156</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>007862</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>金元顺安医疗健康混合型证券投资基金C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.09</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>88.90</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.54</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0032</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>005537</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>中航新起航灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>87.96</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>7.62</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0023</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>005538</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>中航新起航灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>87.96</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>7.62</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0008</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1439,32 +3582,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>011335</t>
+          <t>506006</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>银河医药健康混合型证券投资基金</t>
+          <t>汇添富科创板2年定期开放混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>8.94</t>
+          <t>28.65</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>87.69</t>
+          <t>94.90</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.66</t>
+          <t>3.31</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.4166</t>
+          <t>0.9483</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1477,36 +3620,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>519670</t>
+          <t>011335</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>银河行业混合</t>
+          <t>银河医药健康混合型证券投资基金</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>9.93</t>
+          <t>8.99</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>80.84</t>
+          <t>93.77</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.97</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.2949</t>
+          <t>0.4450</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -1525,26 +3668,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.52</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>86.80</t>
+          <t>88.90</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.35</t>
+          <t>3.54</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0174</t>
+          <t>0.0156</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -1568,21 +3711,21 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>86.80</t>
+          <t>88.90</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.35</t>
+          <t>3.54</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0030</t>
+          <t>0.0032</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -1606,21 +3749,21 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>87.09</t>
+          <t>87.96</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4.18</t>
+          <t>7.62</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0013</t>
+          <t>0.0023</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -1644,21 +3787,21 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>87.09</t>
+          <t>87.96</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>4.18</t>
+          <t>7.62</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0004</t>
+          <t>0.0008</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1667,6 +3810,290 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>011335</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银河医药健康混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>8.94</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.69</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4166</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>519670</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>银河行业混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>9.93</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>80.84</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2949</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>007861</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>金元顺安医疗健康混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.80</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0174</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>007862</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>金元顺安医疗健康混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>86.80</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005537</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中航新起航灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>87.09</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005538</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中航新起航灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>87.09</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
